--- a/release/figures/SBharadwaj_20240318_Sample_1_4_7_8_2_5_DCs_non_Cd3g_exprs_seurat_clusters_gene_ranking.xlsx
+++ b/release/figures/SBharadwaj_20240318_Sample_1_4_7_8_2_5_DCs_non_Cd3g_exprs_seurat_clusters_gene_ranking.xlsx
@@ -1681,7 +1681,7 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Mmp12</t>
+          <t>Camk1d</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -1741,7 +1741,7 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Camk1d</t>
+          <t>Mmp12</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -3416,7 +3416,7 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Cyld</t>
+          <t>Plek</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -3476,7 +3476,7 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Plek</t>
+          <t>Cyld</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -4111,7 +4111,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Rab7b</t>
+          <t>Camk1d</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -4171,7 +4171,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Camk1d</t>
+          <t>Rab7b</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">

--- a/release/figures/SBharadwaj_20240318_Sample_1_4_7_8_2_5_DCs_non_Cd3g_exprs_seurat_clusters_gene_ranking.xlsx
+++ b/release/figures/SBharadwaj_20240318_Sample_1_4_7_8_2_5_DCs_non_Cd3g_exprs_seurat_clusters_gene_ranking.xlsx
@@ -1681,7 +1681,7 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Camk1d</t>
+          <t>Mmp12</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -1741,7 +1741,7 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Mmp12</t>
+          <t>Camk1d</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -3416,7 +3416,7 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Plek</t>
+          <t>Cyld</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -3476,7 +3476,7 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Cyld</t>
+          <t>Plek</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -4111,7 +4111,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Camk1d</t>
+          <t>Rab7b</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -4171,7 +4171,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Rab7b</t>
+          <t>Camk1d</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
